--- a/BackTest/2020-01-15 BackTest LINK.xlsx
+++ b/BackTest/2020-01-15 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3049.011851749389</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3071.106751749389</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2460</v>
@@ -521,7 +521,7 @@
         <v>-3071.106751749389</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2459</v>
@@ -562,7 +562,7 @@
         <v>-3070.896751749389</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2459</v>
@@ -603,7 +603,7 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2466</v>
@@ -640,7 +640,7 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2459</v>
@@ -681,7 +681,7 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2459</v>
@@ -722,7 +722,7 @@
         <v>-3891.558451749389</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>2459</v>
@@ -759,7 +759,7 @@
         <v>-2981.015751749389</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2467</v>
@@ -800,7 +800,7 @@
         <v>-3117.873351749389</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2469</v>
@@ -841,7 +841,7 @@
         <v>-3117.468329473164</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2465</v>
@@ -878,9 +878,11 @@
         <v>-3117.468329473164</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2469</v>
+      </c>
       <c r="J13" t="n">
         <v>2465</v>
       </c>
@@ -917,9 +919,11 @@
         <v>-3134.452929473164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2469</v>
+      </c>
       <c r="J14" t="n">
         <v>2465</v>
       </c>
@@ -956,7 +960,7 @@
         <v>-2998.910847658664</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>2467</v>
@@ -997,7 +1001,7 @@
         <v>-3821.324947658664</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>2469</v>
@@ -1038,7 +1042,7 @@
         <v>-4586.822447658664</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>2467</v>
@@ -1079,7 +1083,7 @@
         <v>-4845.444247658664</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>2458</v>
@@ -1120,7 +1124,7 @@
         <v>-4515.944247658664</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>2452</v>
@@ -1161,7 +1165,7 @@
         <v>-4360.985547658664</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>2455</v>
@@ -1202,7 +1206,7 @@
         <v>-4282.866247658663</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>2457</v>
@@ -1243,7 +1247,7 @@
         <v>-4232.866247658663</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>2458</v>
@@ -1284,7 +1288,7 @@
         <v>-4155.779747658663</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>2465</v>
@@ -1325,9 +1329,11 @@
         <v>-4221.198947658663</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2467</v>
+      </c>
       <c r="J24" t="n">
         <v>2465</v>
       </c>
@@ -1364,9 +1370,11 @@
         <v>-4213.898947658663</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2458</v>
+      </c>
       <c r="J25" t="n">
         <v>2465</v>
       </c>
@@ -1403,9 +1411,11 @@
         <v>-3118.022347658663</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2463</v>
+      </c>
       <c r="J26" t="n">
         <v>2465</v>
       </c>
@@ -1442,9 +1452,11 @@
         <v>-3069.192319330051</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2470</v>
+      </c>
       <c r="J27" t="n">
         <v>2465</v>
       </c>
@@ -1559,9 +1571,11 @@
         <v>-3007.187864085012</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2469</v>
+      </c>
       <c r="J30" t="n">
         <v>2465</v>
       </c>
@@ -1676,9 +1690,11 @@
         <v>-3129.187764085012</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2465</v>
+      </c>
       <c r="J33" t="n">
         <v>2465</v>
       </c>
@@ -1715,9 +1731,11 @@
         <v>-3129.187764085012</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2465</v>
+      </c>
       <c r="J34" t="n">
         <v>2465</v>
       </c>
@@ -1754,7 +1772,7 @@
         <v>-3129.187764085012</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>2465</v>
@@ -1795,7 +1813,7 @@
         <v>-272.0818640850121</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>2465</v>
@@ -1836,9 +1854,11 @@
         <v>-314.4531640850121</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2470</v>
+      </c>
       <c r="J37" t="n">
         <v>2465</v>
       </c>
@@ -1875,9 +1895,11 @@
         <v>-77.10256408501209</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2465</v>
+      </c>
       <c r="J38" t="n">
         <v>2465</v>
       </c>
@@ -1914,9 +1936,11 @@
         <v>107.3999359149879</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2466</v>
+      </c>
       <c r="J39" t="n">
         <v>2465</v>
       </c>
@@ -1953,9 +1977,11 @@
         <v>107.3999359149879</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2470</v>
+      </c>
       <c r="J40" t="n">
         <v>2465</v>
       </c>
@@ -1992,9 +2018,11 @@
         <v>-823.9755640850121</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2470</v>
+      </c>
       <c r="J41" t="n">
         <v>2465</v>
       </c>
@@ -2031,9 +2059,11 @@
         <v>-823.9755640850121</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2467</v>
+      </c>
       <c r="J42" t="n">
         <v>2465</v>
       </c>
@@ -2070,9 +2100,11 @@
         <v>-823.9755640850121</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2467</v>
+      </c>
       <c r="J43" t="n">
         <v>2465</v>
       </c>
@@ -2109,9 +2141,11 @@
         <v>-823.9755640850121</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2467</v>
+      </c>
       <c r="J44" t="n">
         <v>2465</v>
       </c>
@@ -2148,9 +2182,11 @@
         <v>-2873.975564085012</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2467</v>
+      </c>
       <c r="J45" t="n">
         <v>2465</v>
       </c>
@@ -2187,9 +2223,11 @@
         <v>-2854.649764085012</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2465</v>
+      </c>
       <c r="J46" t="n">
         <v>2465</v>
       </c>
@@ -2226,9 +2264,11 @@
         <v>-4182.739664085012</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2470</v>
+      </c>
       <c r="J47" t="n">
         <v>2465</v>
       </c>
@@ -2304,7 +2344,7 @@
         <v>-5339.810264085012</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>2462</v>
@@ -2345,9 +2385,11 @@
         <v>-5339.810264085012</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2474</v>
+      </c>
       <c r="J50" t="n">
         <v>2465</v>
       </c>
@@ -2384,9 +2426,11 @@
         <v>-5339.810264085012</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2474</v>
+      </c>
       <c r="J51" t="n">
         <v>2465</v>
       </c>
@@ -2423,9 +2467,11 @@
         <v>-5412.854864085012</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2474</v>
+      </c>
       <c r="J52" t="n">
         <v>2465</v>
       </c>
@@ -2462,9 +2508,11 @@
         <v>-5412.854864085012</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2473</v>
+      </c>
       <c r="J53" t="n">
         <v>2465</v>
       </c>
@@ -2501,9 +2549,11 @@
         <v>-5412.854864085012</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2473</v>
+      </c>
       <c r="J54" t="n">
         <v>2465</v>
       </c>
@@ -2540,9 +2590,11 @@
         <v>-6928.649864085012</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2473</v>
+      </c>
       <c r="J55" t="n">
         <v>2465</v>
       </c>
@@ -2579,9 +2631,11 @@
         <v>-6928.649864085012</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2468</v>
+      </c>
       <c r="J56" t="n">
         <v>2465</v>
       </c>
@@ -2618,9 +2672,11 @@
         <v>-7000.799964085012</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2468</v>
+      </c>
       <c r="J57" t="n">
         <v>2465</v>
       </c>
@@ -2657,9 +2713,11 @@
         <v>-6362.482664085012</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2465</v>
+      </c>
       <c r="J58" t="n">
         <v>2465</v>
       </c>
@@ -2696,9 +2754,11 @@
         <v>-6362.482664085012</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2476</v>
+      </c>
       <c r="J59" t="n">
         <v>2465</v>
       </c>
@@ -2735,9 +2795,11 @@
         <v>-6362.482664085012</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2476</v>
+      </c>
       <c r="J60" t="n">
         <v>2465</v>
       </c>
@@ -2891,9 +2953,11 @@
         <v>-7174.701964085013</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2475</v>
+      </c>
       <c r="J64" t="n">
         <v>2465</v>
       </c>
@@ -2930,9 +2994,11 @@
         <v>-6132.701964085013</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2475</v>
+      </c>
       <c r="J65" t="n">
         <v>2465</v>
       </c>
@@ -2969,9 +3035,11 @@
         <v>-3754.586864085013</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2476</v>
+      </c>
       <c r="J66" t="n">
         <v>2465</v>
       </c>
@@ -3008,9 +3076,11 @@
         <v>-4074.515964085013</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2478</v>
+      </c>
       <c r="J67" t="n">
         <v>2465</v>
       </c>
@@ -3047,9 +3117,11 @@
         <v>-2874.515964085013</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2476</v>
+      </c>
       <c r="J68" t="n">
         <v>2465</v>
       </c>
@@ -3593,9 +3665,11 @@
         <v>-5997.912063200057</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2482</v>
+      </c>
       <c r="J82" t="n">
         <v>2465</v>
       </c>
@@ -3671,9 +3745,11 @@
         <v>-6009.912063200057</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2482</v>
+      </c>
       <c r="J84" t="n">
         <v>2465</v>
       </c>
@@ -3710,9 +3786,11 @@
         <v>-6031.912063200057</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2481</v>
+      </c>
       <c r="J85" t="n">
         <v>2465</v>
       </c>
@@ -3749,9 +3827,11 @@
         <v>-7725.028863200057</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2480</v>
+      </c>
       <c r="J86" t="n">
         <v>2465</v>
       </c>
@@ -3788,9 +3868,11 @@
         <v>-8377.02714559101</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2477</v>
+      </c>
       <c r="J87" t="n">
         <v>2465</v>
       </c>
@@ -3827,9 +3909,11 @@
         <v>-8242.683645591009</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2474</v>
+      </c>
       <c r="J88" t="n">
         <v>2465</v>
       </c>
@@ -3866,9 +3950,11 @@
         <v>-8542.683645591009</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2482</v>
+      </c>
       <c r="J89" t="n">
         <v>2465</v>
       </c>
@@ -3905,9 +3991,11 @@
         <v>-10007.18154559101</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2474</v>
+      </c>
       <c r="J90" t="n">
         <v>2465</v>
       </c>
@@ -3944,9 +4032,11 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2473</v>
+      </c>
       <c r="J91" t="n">
         <v>2465</v>
       </c>
@@ -3983,9 +4073,11 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2482</v>
+      </c>
       <c r="J92" t="n">
         <v>2465</v>
       </c>
@@ -4022,9 +4114,11 @@
         <v>-11037.18724559101</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2482</v>
+      </c>
       <c r="J93" t="n">
         <v>2465</v>
       </c>
@@ -4061,9 +4155,11 @@
         <v>-11035.18724559101</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2472</v>
+      </c>
       <c r="J94" t="n">
         <v>2465</v>
       </c>
@@ -4100,9 +4196,11 @@
         <v>-11067.37734559101</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2481</v>
+      </c>
       <c r="J95" t="n">
         <v>2465</v>
       </c>
@@ -4178,9 +4276,11 @@
         <v>-11167.37734559101</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2480</v>
+      </c>
       <c r="J97" t="n">
         <v>2465</v>
       </c>
@@ -4217,9 +4317,11 @@
         <v>-11108.48344559101</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2472</v>
+      </c>
       <c r="J98" t="n">
         <v>2465</v>
       </c>
@@ -4334,9 +4436,11 @@
         <v>-11738.84174559101</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2474</v>
+      </c>
       <c r="J101" t="n">
         <v>2465</v>
       </c>
@@ -4373,9 +4477,11 @@
         <v>-11617.87194559101</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2474</v>
+      </c>
       <c r="J102" t="n">
         <v>2465</v>
       </c>
@@ -5348,9 +5454,11 @@
         <v>-5526.849050560832</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2471</v>
+      </c>
       <c r="J127" t="n">
         <v>2465</v>
       </c>
@@ -5387,9 +5495,11 @@
         <v>-5735.647750560833</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2487</v>
+      </c>
       <c r="J128" t="n">
         <v>2465</v>
       </c>
@@ -5426,9 +5536,11 @@
         <v>-5720.630450560832</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2468</v>
+      </c>
       <c r="J129" t="n">
         <v>2465</v>
       </c>
@@ -5465,9 +5577,11 @@
         <v>-6576.341450560833</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2479</v>
+      </c>
       <c r="J130" t="n">
         <v>2465</v>
       </c>
@@ -5504,9 +5618,11 @@
         <v>-6791.997850560832</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2475</v>
+      </c>
       <c r="J131" t="n">
         <v>2465</v>
       </c>
@@ -5543,9 +5659,11 @@
         <v>-6791.997850560832</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2469</v>
+      </c>
       <c r="J132" t="n">
         <v>2465</v>
       </c>
@@ -5582,9 +5700,11 @@
         <v>-10952.11395056083</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2469</v>
+      </c>
       <c r="J133" t="n">
         <v>2465</v>
       </c>
@@ -5621,9 +5741,11 @@
         <v>-10155.62845056083</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2465</v>
+      </c>
       <c r="J134" t="n">
         <v>2465</v>
       </c>
@@ -5660,9 +5782,11 @@
         <v>-8100.653950560833</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2467</v>
+      </c>
       <c r="J135" t="n">
         <v>2465</v>
       </c>
@@ -5699,9 +5823,11 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2476</v>
+      </c>
       <c r="J136" t="n">
         <v>2465</v>
       </c>
@@ -5738,9 +5864,11 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2472</v>
+      </c>
       <c r="J137" t="n">
         <v>2465</v>
       </c>
@@ -5777,9 +5905,11 @@
         <v>-11962.43183441227</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2472</v>
+      </c>
       <c r="J138" t="n">
         <v>2465</v>
       </c>
@@ -5816,9 +5946,11 @@
         <v>-10972.70653441227</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2475</v>
+      </c>
       <c r="J139" t="n">
         <v>2465</v>
       </c>
@@ -5855,9 +5987,11 @@
         <v>-11194.70653441227</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2480</v>
+      </c>
       <c r="J140" t="n">
         <v>2465</v>
       </c>
@@ -5894,9 +6028,11 @@
         <v>-11162.77443316679</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2475</v>
+      </c>
       <c r="J141" t="n">
         <v>2465</v>
       </c>
@@ -6167,9 +6303,11 @@
         <v>-12239.39905803621</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2477</v>
+      </c>
       <c r="J148" t="n">
         <v>2465</v>
       </c>
@@ -6245,9 +6383,11 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2480</v>
+      </c>
       <c r="J150" t="n">
         <v>2465</v>
       </c>
@@ -6284,9 +6424,11 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2481</v>
+      </c>
       <c r="J151" t="n">
         <v>2465</v>
       </c>
@@ -6323,9 +6465,11 @@
         <v>-9814.309558036211</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2481</v>
+      </c>
       <c r="J152" t="n">
         <v>2465</v>
       </c>
@@ -6362,9 +6506,11 @@
         <v>-9618.346758036212</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2477</v>
+      </c>
       <c r="J153" t="n">
         <v>2465</v>
       </c>
@@ -6401,9 +6547,11 @@
         <v>-10814.20305803621</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2488</v>
+      </c>
       <c r="J154" t="n">
         <v>2465</v>
       </c>
@@ -6440,9 +6588,11 @@
         <v>-10046.84433441227</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2477</v>
+      </c>
       <c r="J155" t="n">
         <v>2465</v>
       </c>
@@ -6479,9 +6629,11 @@
         <v>-9472.299234412267</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2478</v>
+      </c>
       <c r="J156" t="n">
         <v>2465</v>
       </c>
@@ -6518,9 +6670,11 @@
         <v>-12615.84943441227</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2481</v>
+      </c>
       <c r="J157" t="n">
         <v>2465</v>
       </c>
@@ -6557,9 +6711,11 @@
         <v>-12615.84943441227</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2480</v>
+      </c>
       <c r="J158" t="n">
         <v>2465</v>
       </c>
@@ -6596,9 +6752,11 @@
         <v>-13563.59513441227</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2480</v>
+      </c>
       <c r="J159" t="n">
         <v>2465</v>
       </c>
@@ -6635,9 +6793,11 @@
         <v>-13563.59513441227</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2478</v>
+      </c>
       <c r="J160" t="n">
         <v>2465</v>
       </c>
@@ -6674,9 +6834,11 @@
         <v>-15243.03533441227</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2478</v>
+      </c>
       <c r="J161" t="n">
         <v>2465</v>
       </c>
@@ -6713,9 +6875,11 @@
         <v>-14360.73503441227</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2475</v>
+      </c>
       <c r="J162" t="n">
         <v>2465</v>
       </c>
@@ -6752,9 +6916,11 @@
         <v>-13302.81563441227</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2487</v>
+      </c>
       <c r="J163" t="n">
         <v>2465</v>
       </c>
@@ -15449,7 +15615,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
@@ -15457,11 +15623,11 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
-        <v>1.017312373225152</v>
+        <v>1</v>
       </c>
       <c r="M386" t="inlineStr"/>
     </row>
@@ -15488,11 +15654,17 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15524,8 +15696,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15557,8 +15735,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15587,11 +15771,17 @@
         <v>1619815.668625491</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15623,8 +15813,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15656,8 +15852,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15689,8 +15891,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15722,8 +15930,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15755,8 +15969,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15785,11 +16005,17 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15818,11 +16044,17 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15851,11 +16083,17 @@
         <v>1620945.234925491</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15884,11 +16122,17 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15917,11 +16161,17 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15950,11 +16200,17 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15983,11 +16239,17 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16016,11 +16278,17 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16049,11 +16317,17 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16085,8 +16359,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16118,8 +16398,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16151,8 +16437,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16184,8 +16476,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16217,8 +16515,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16250,8 +16554,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16283,8 +16593,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16316,8 +16632,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16349,8 +16671,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16382,8 +16710,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16415,8 +16749,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16448,8 +16788,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16478,11 +16824,17 @@
         <v>1617837.52009772</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16511,11 +16863,17 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16544,11 +16902,17 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16577,11 +16941,17 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16610,11 +16980,17 @@
         <v>1618100.331797719</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16643,11 +17019,17 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16676,11 +17058,17 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16709,11 +17097,17 @@
         <v>1618197.767297719</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16742,11 +17136,17 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16775,11 +17175,17 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16808,11 +17214,17 @@
         <v>1608806.723897719</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16841,11 +17253,17 @@
         <v>1613915.963140666</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16874,11 +17292,17 @@
         <v>1613898.381740666</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16907,11 +17331,17 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16940,11 +17370,17 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16973,11 +17409,17 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17006,11 +17448,17 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17039,13 +17487,19 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L434" t="n">
-        <v>1</v>
+        <v>1.025831643002028</v>
       </c>
       <c r="M434" t="inlineStr"/>
     </row>
@@ -17072,7 +17526,7 @@
         <v>1612842.931440666</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17105,7 +17559,7 @@
         <v>1612815.079940666</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17138,7 +17592,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17171,7 +17625,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17204,7 +17658,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17237,7 +17691,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17270,7 +17724,7 @@
         <v>1608463.052840666</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17303,7 +17757,7 @@
         <v>1608522.076840666</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17336,7 +17790,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17369,7 +17823,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17402,7 +17856,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17435,7 +17889,7 @@
         <v>1605245.717440665</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17468,7 +17922,7 @@
         <v>1605246.717440665</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17501,7 +17955,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17534,7 +17988,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17567,7 +18021,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17600,7 +18054,7 @@
         <v>1603311.744440665</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17666,7 +18120,7 @@
         <v>1603439.260440666</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17996,7 +18450,7 @@
         <v>1593299.991140666</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18029,7 +18483,7 @@
         <v>1593102.763140666</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18128,7 +18582,7 @@
         <v>1593097.674140666</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18161,7 +18615,7 @@
         <v>1593003.240640666</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18260,7 +18714,7 @@
         <v>1592727.677840666</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18293,7 +18747,7 @@
         <v>1592750.857140666</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18425,7 +18879,7 @@
         <v>1595468.992940666</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18557,7 +19011,7 @@
         <v>1584712.153376958</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18722,7 +19176,7 @@
         <v>1579009.790376958</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18755,7 +19209,7 @@
         <v>1578482.008476958</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18788,7 +19242,7 @@
         <v>1578482.008476958</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18821,7 +19275,7 @@
         <v>1578666.535276958</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18854,7 +19308,7 @@
         <v>1578815.996756072</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18887,7 +19341,7 @@
         <v>1578810.996756072</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18920,7 +19374,7 @@
         <v>1578998.044956072</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18953,7 +19407,7 @@
         <v>1578998.044956072</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18986,7 +19440,7 @@
         <v>1578257.971656072</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19019,7 +19473,7 @@
         <v>1578257.971656072</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19052,7 +19506,7 @@
         <v>1578257.971656072</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19085,7 +19539,7 @@
         <v>1576833.910156072</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19118,7 +19572,7 @@
         <v>1576238.339256072</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19151,7 +19605,7 @@
         <v>1576240.370456073</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19184,7 +19638,7 @@
         <v>1576237.924656072</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19217,7 +19671,7 @@
         <v>1575833.335656072</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19250,7 +19704,7 @@
         <v>1575834.335656072</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19514,7 +19968,7 @@
         <v>1566975.960956072</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19613,7 +20067,7 @@
         <v>1567503.261556072</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19646,7 +20100,7 @@
         <v>1566284.959456072</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19679,7 +20133,7 @@
         <v>1566285.958404068</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19712,7 +20166,7 @@
         <v>1566225.810453493</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19745,7 +20199,7 @@
         <v>1568421.646953493</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19778,7 +20232,7 @@
         <v>1568420.946953493</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19910,7 +20364,7 @@
         <v>1568403.293553493</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19943,7 +20397,7 @@
         <v>1568764.982840884</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19976,7 +20430,7 @@
         <v>1568708.385840884</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20009,7 +20463,7 @@
         <v>1567288.154140884</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20042,7 +20496,7 @@
         <v>1567288.154140884</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20108,7 +20562,7 @@
         <v>1554645.643640884</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20141,7 +20595,7 @@
         <v>1554645.841640884</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20174,7 +20628,7 @@
         <v>1554639.941240884</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20207,7 +20661,7 @@
         <v>1554520.876040884</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20240,7 +20694,7 @@
         <v>1554521.075040884</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20273,7 +20727,7 @@
         <v>1554308.247040884</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20306,7 +20760,7 @@
         <v>1554350.763040884</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20405,7 +20859,7 @@
         <v>1555429.118040884</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20438,7 +20892,7 @@
         <v>1555639.499240884</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20471,7 +20925,7 @@
         <v>1554995.592240884</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20504,7 +20958,7 @@
         <v>1554995.792240884</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20537,7 +20991,7 @@
         <v>1555189.347024469</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20570,7 +21024,7 @@
         <v>1554616.339624469</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20603,7 +21057,7 @@
         <v>1554616.339624469</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20636,7 +21090,7 @@
         <v>1554599.379624469</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20669,7 +21123,7 @@
         <v>1554599.579624469</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20702,7 +21156,7 @@
         <v>1554599.579624469</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21857,7 +22311,7 @@
         <v>1571782.349324469</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21890,7 +22344,7 @@
         <v>1571782.349324469</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -24640,6 +25094,6 @@
       <c r="M664" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LINK.xlsx
+++ b/BackTest/2020-01-15 BackTest LINK.xlsx
@@ -603,10 +603,14 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2466</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2466</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,11 +640,19 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2459</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2466</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,9 +687,13 @@
         <v>2459</v>
       </c>
       <c r="J8" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>2466</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +722,15 @@
         <v>-3891.558451749389</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2459</v>
+      </c>
       <c r="J9" t="n">
         <v>2459</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,9 +759,11 @@
         <v>-2981.015751749389</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2467</v>
+      </c>
       <c r="J10" t="n">
         <v>2459</v>
       </c>
@@ -784,11 +800,19 @@
         <v>-3117.873351749389</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -817,10 +841,14 @@
         <v>-3117.468329473164</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2465</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2465</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -850,11 +878,19 @@
         <v>-3117.468329473164</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,11 +919,19 @@
         <v>-3134.452929473164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -916,11 +960,19 @@
         <v>-2998.910847658664</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2467</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -949,11 +1001,19 @@
         <v>-3821.324947658664</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -982,11 +1042,19 @@
         <v>-4586.822447658664</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2467</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1015,11 +1083,19 @@
         <v>-4845.444247658664</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2458</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1048,11 +1124,19 @@
         <v>-4515.944247658664</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2452</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1081,11 +1165,19 @@
         <v>-4360.985547658664</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2455</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1114,11 +1206,19 @@
         <v>-4282.866247658663</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2457</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,11 +1247,19 @@
         <v>-4232.866247658663</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2458</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1180,11 +1288,19 @@
         <v>-4155.779747658663</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2465</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1213,11 +1329,19 @@
         <v>-4221.198947658663</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2467</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1246,11 +1370,19 @@
         <v>-4213.898947658663</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2458</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1279,11 +1411,19 @@
         <v>-3118.022347658663</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2463</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1312,11 +1452,19 @@
         <v>-3069.192319330051</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1345,11 +1493,19 @@
         <v>-3088.192319330051</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2471</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1534,19 @@
         <v>-3007.187864085012</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1414,8 +1578,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1447,8 +1617,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1480,8 +1656,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1518,7 +1700,11 @@
       <c r="J33" t="n">
         <v>2465</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1555,7 +1741,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1594,7 +1780,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1628,8 +1814,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1661,8 +1853,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1694,8 +1892,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1727,8 +1931,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1760,8 +1970,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1793,8 +2009,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1826,8 +2048,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1859,8 +2087,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2126,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1925,8 +2165,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1958,8 +2204,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1991,8 +2243,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2024,8 +2282,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2060,9 +2324,13 @@
         <v>2462</v>
       </c>
       <c r="J49" t="n">
-        <v>2462</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>2465</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2095,11 +2363,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2134,11 +2402,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2172,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2205,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2238,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2271,8 +2557,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2304,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2337,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2367,11 +2671,19 @@
         <v>-6362.482664085012</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2465</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2403,8 +2715,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2436,8 +2754,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2469,8 +2793,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2502,8 +2832,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2535,8 +2871,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2568,8 +2910,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2601,8 +2949,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2634,8 +2988,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2667,8 +3027,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2700,8 +3066,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2733,8 +3105,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2766,8 +3144,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2799,8 +3183,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2832,8 +3222,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2865,8 +3261,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2898,8 +3300,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2931,8 +3339,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2964,8 +3378,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2997,8 +3417,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3030,8 +3456,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3063,8 +3495,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3096,8 +3534,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3129,8 +3573,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3162,8 +3612,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3195,8 +3651,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3228,8 +3690,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3261,8 +3729,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3294,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3807,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3360,8 +3846,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3393,8 +3885,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3426,8 +3924,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3456,15 +3960,17 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>2473</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>2465</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3999,15 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3538,11 +4042,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3573,13 +4077,11 @@
         <v>-11035.18724559101</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3618,7 +4120,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3657,7 +4159,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3696,7 +4198,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3731,13 +4233,11 @@
         <v>-11108.48344559101</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3776,7 +4276,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3815,7 +4315,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3850,13 +4350,11 @@
         <v>-11738.84174559101</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3891,13 +4389,11 @@
         <v>-11617.87194559101</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3936,7 +4432,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3975,7 +4471,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4014,7 +4510,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4053,7 +4549,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4092,7 +4588,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4131,7 +4627,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4170,7 +4666,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4209,7 +4705,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4248,7 +4744,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4287,7 +4783,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4326,7 +4822,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4365,7 +4861,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4400,19 +4896,19 @@
         <v>5593.417249439168</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.01400525677315</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
@@ -4439,11 +4935,17 @@
         <v>5562.859749439168</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4472,11 +4974,17 @@
         <v>3641.598849439168</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +5013,17 @@
         <v>3973.876849439168</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +5052,17 @@
         <v>4071.329049439168</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4571,11 +5091,17 @@
         <v>4142.507949439168</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4604,11 +5130,17 @@
         <v>3879.061149439168</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4637,11 +5169,17 @@
         <v>4020.756349439168</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4673,8 +5211,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +5247,17 @@
         <v>-7074.755050560832</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4739,8 +5289,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4772,8 +5328,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4805,8 +5367,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4838,8 +5406,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4871,8 +5445,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4904,8 +5484,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5523,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4970,8 +5562,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5003,8 +5601,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5033,15 +5637,17 @@
         <v>-10155.62845056083</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>2465</v>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5684,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -5109,17 +5715,15 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>2465</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5150,15 +5754,17 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2472</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>2465</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5187,17 +5793,15 @@
         <v>-11962.43183441227</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5228,17 +5832,15 @@
         <v>-10972.70653441227</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5269,17 +5871,15 @@
         <v>-11194.70653441227</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5310,13 +5910,11 @@
         <v>-11162.77443316679</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5355,7 +5953,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5390,11 +5988,11 @@
         <v>-12216.23573316679</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5429,11 +6027,11 @@
         <v>-12342.73653316679</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5468,11 +6066,11 @@
         <v>-10793.00645803621</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5507,11 +6105,11 @@
         <v>-10824.06265803621</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5546,11 +6144,11 @@
         <v>-12239.39905803621</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5589,7 +6187,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5628,7 +6226,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5663,11 +6261,11 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5702,19 +6300,19 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>0.9986407766990292</v>
+        <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
@@ -5741,11 +6339,17 @@
         <v>-9814.309558036211</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5774,11 +6378,17 @@
         <v>-9618.346758036212</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5807,11 +6417,17 @@
         <v>-10814.20305803621</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5840,11 +6456,17 @@
         <v>-10046.84433441227</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5876,8 +6498,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5909,8 +6537,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5942,8 +6576,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5975,8 +6615,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6008,8 +6654,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6038,15 +6690,15 @@
         <v>-15243.03533441227</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2478</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2465</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -6077,12 +6729,12 @@
         <v>-14360.73503441227</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2475</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2465</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,12 +6768,12 @@
         <v>-13302.81563441227</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2487</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2465</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,12 +6807,12 @@
         <v>-9488.913934412265</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2491</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2465</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6197,7 +6849,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2465</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,7 +6888,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2465</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6271,7 +6927,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2465</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,7 +6966,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2465</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,7 +7005,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2465</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,7 +7044,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2465</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6419,7 +7083,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2465</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6456,7 +7122,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2465</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,16 +7158,20 @@
         <v>18457.10648034262</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2465</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
       <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -6525,11 +7197,17 @@
         <v>16886.83548034262</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6558,11 +7236,17 @@
         <v>13072.40428034262</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6591,11 +7275,17 @@
         <v>14127.13758034262</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +7314,17 @@
         <v>14127.13758034262</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6657,11 +7353,17 @@
         <v>14138.13758034262</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +7392,17 @@
         <v>13281.59048034262</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6723,11 +7431,17 @@
         <v>13282.59048034262</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +7473,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7512,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +7551,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +7590,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6891,8 +7629,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6924,8 +7668,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6957,8 +7707,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +7746,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7023,8 +7785,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7056,8 +7824,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +7863,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7122,8 +7902,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7155,8 +7941,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7188,8 +7980,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7218,11 +8016,17 @@
         <v>17262.45499446354</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7251,11 +8055,17 @@
         <v>17262.45499446354</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7284,11 +8094,17 @@
         <v>17309.36059446354</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7317,11 +8133,17 @@
         <v>18309.36059446354</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7350,11 +8172,17 @@
         <v>18274.16769446354</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7383,11 +8211,17 @@
         <v>18458.06699446354</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7419,8 +8253,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7452,8 +8292,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7485,8 +8331,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7518,8 +8370,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7551,8 +8409,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7584,8 +8448,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7614,11 +8484,17 @@
         <v>18803.79660043964</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7647,11 +8523,17 @@
         <v>17732.07250043964</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7683,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7716,8 +8604,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +8640,17 @@
         <v>21020.68680043964</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +8679,17 @@
         <v>21020.68680043964</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7812,11 +8718,17 @@
         <v>21019.02310043964</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +8757,17 @@
         <v>21056.52310043964</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7881,8 +8799,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +8838,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8877,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +8916,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8013,8 +8955,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8046,8 +8994,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +9033,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8112,8 +9072,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8145,8 +9111,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8178,8 +9150,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8211,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +9228,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8277,8 +9267,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8310,8 +9306,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8343,8 +9345,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8376,8 +9384,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +9423,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +9462,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8475,8 +9501,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +9540,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +9579,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8574,8 +9618,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8607,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8640,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8673,8 +9735,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8706,8 +9774,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8739,8 +9813,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8772,8 +9852,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8802,11 +9888,17 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8835,11 +9927,17 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8868,11 +9966,17 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8901,11 +10005,17 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8934,11 +10044,17 @@
         <v>1572837.486399004</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8967,11 +10083,17 @@
         <v>1572868.237499004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +10122,17 @@
         <v>1572868.237499004</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9033,11 +10161,17 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +10200,17 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9099,11 +10239,17 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9132,11 +10278,17 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +10437,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9333,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9363,11 +10551,17 @@
         <v>1569348.588599004</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9396,11 +10590,17 @@
         <v>1569315.480199004</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9432,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9465,8 +10671,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9498,8 +10710,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9531,8 +10749,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +10788,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +10827,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9630,8 +10866,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9663,8 +10905,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9696,8 +10944,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9729,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9762,8 +11022,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +11061,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9828,8 +11100,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9861,8 +11139,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9894,8 +11178,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9927,8 +11217,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9960,8 +11256,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9993,8 +11295,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10026,8 +11334,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10059,8 +11373,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10092,8 +11412,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10125,8 +11451,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10158,8 +11490,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10191,8 +11529,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10224,8 +11568,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +11607,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +11646,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10323,8 +11685,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10356,8 +11724,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10386,11 +11760,17 @@
         <v>1565027.80590426</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10419,11 +11799,17 @@
         <v>1563844.63470426</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10452,11 +11838,17 @@
         <v>1563744.63470426</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10488,8 +11880,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10521,8 +11919,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10554,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10587,8 +11997,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10620,8 +12036,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10653,8 +12075,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10686,8 +12114,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10719,8 +12153,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10752,8 +12192,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10785,8 +12231,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10818,8 +12270,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10851,8 +12309,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10884,8 +12348,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10917,8 +12387,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10950,8 +12426,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10983,8 +12465,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11016,8 +12504,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11049,8 +12543,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11082,8 +12582,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11115,8 +12621,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11148,8 +12660,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11181,8 +12699,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11214,8 +12738,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11247,8 +12777,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11280,8 +12816,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11313,8 +12855,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11346,8 +12894,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11379,8 +12933,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11412,8 +12972,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11445,8 +13011,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11478,8 +13050,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11511,8 +13089,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11541,11 +13125,17 @@
         <v>1563019.533373642</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11574,11 +13164,17 @@
         <v>1562873.533373642</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11607,11 +13203,17 @@
         <v>1564075.387473642</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11640,11 +13242,17 @@
         <v>1564075.387473642</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11673,11 +13281,17 @@
         <v>1560443.173473642</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11709,8 +13323,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11742,8 +13362,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11775,8 +13401,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11805,11 +13437,17 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11838,11 +13476,17 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11871,11 +13515,17 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11904,11 +13554,17 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11937,11 +13593,17 @@
         <v>1561173.762573642</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11970,11 +13632,17 @@
         <v>1561173.762573642</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12003,11 +13671,17 @@
         <v>1557796.702673642</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12039,8 +13713,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12072,8 +13752,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12105,8 +13791,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12138,8 +13830,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12171,8 +13869,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12204,8 +13908,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12237,8 +13947,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12270,8 +13986,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12303,8 +14025,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12336,8 +14064,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12369,8 +14103,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12402,8 +14142,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12435,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12468,8 +14220,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12501,8 +14259,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12534,8 +14298,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12567,8 +14337,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12600,8 +14376,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12633,8 +14415,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12666,8 +14454,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12699,8 +14493,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12732,8 +14532,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12765,8 +14571,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12798,8 +14610,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12831,8 +14649,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12864,8 +14688,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12897,8 +14727,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12930,8 +14766,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12963,8 +14805,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12996,8 +14844,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13029,8 +14883,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13062,8 +14922,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13095,8 +14961,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13128,8 +15000,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13158,11 +15036,17 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13191,11 +15075,17 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13224,11 +15114,17 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13257,11 +15153,17 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13290,11 +15192,17 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13323,11 +15231,17 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13356,11 +15270,17 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +15309,17 @@
         <v>1618738.631725491</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13422,11 +15348,17 @@
         <v>1618738.631725491</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13455,11 +15387,17 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13488,11 +15426,17 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13521,11 +15465,17 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13554,11 +15504,17 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13587,11 +15543,17 @@
         <v>1619221.499325491</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13620,11 +15582,17 @@
         <v>1618857.668625491</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13653,11 +15621,17 @@
         <v>1619815.668625491</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13686,11 +15660,17 @@
         <v>1619229.549225491</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13719,11 +15699,17 @@
         <v>1619229.549225491</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13752,11 +15738,17 @@
         <v>1619429.549225491</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13785,11 +15777,17 @@
         <v>1619877.323325491</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13818,11 +15816,17 @@
         <v>1619983.458225491</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13851,11 +15855,17 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13884,11 +15894,17 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13917,11 +15933,17 @@
         <v>1620945.234925491</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13950,11 +15972,17 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13983,11 +16011,17 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14016,11 +16050,17 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14049,11 +16089,17 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14082,11 +16128,17 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14118,10 +16170,16 @@
         <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L404" t="n">
-        <v>1</v>
+        <v>1.022180527383367</v>
       </c>
       <c r="M404" t="inlineStr"/>
     </row>
@@ -14148,7 +16206,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14313,7 +16371,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14346,7 +16404,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14379,7 +16437,7 @@
         <v>1616813.208325491</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14412,7 +16470,7 @@
         <v>1614795.642697719</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14445,7 +16503,7 @@
         <v>1617265.807297719</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14478,7 +16536,7 @@
         <v>1616940.807297719</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14511,7 +16569,7 @@
         <v>1616940.807297719</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14544,7 +16602,7 @@
         <v>1617837.52009772</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14577,7 +16635,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14610,7 +16668,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14643,7 +16701,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14676,7 +16734,7 @@
         <v>1618100.331797719</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14709,7 +16767,7 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14742,7 +16800,7 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14775,7 +16833,7 @@
         <v>1618197.767297719</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14808,7 +16866,7 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14841,7 +16899,7 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14874,7 +16932,7 @@
         <v>1608806.723897719</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14907,7 +16965,7 @@
         <v>1613915.963140666</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14940,7 +16998,7 @@
         <v>1613898.381740666</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14973,7 +17031,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15006,7 +17064,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15039,7 +17097,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15072,7 +17130,7 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15105,7 +17163,7 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15138,7 +17196,7 @@
         <v>1612842.931440666</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15171,7 +17229,7 @@
         <v>1612815.079940666</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15204,7 +17262,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15237,7 +17295,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15270,7 +17328,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15303,7 +17361,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15336,7 +17394,7 @@
         <v>1608463.052840666</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15369,7 +17427,7 @@
         <v>1608522.076840666</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15402,7 +17460,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15435,7 +17493,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15468,7 +17526,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15501,7 +17559,7 @@
         <v>1605245.717440665</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15567,7 +17625,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15600,7 +17658,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15633,7 +17691,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15666,7 +17724,7 @@
         <v>1603311.744440665</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15699,7 +17757,7 @@
         <v>1603439.260440666</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15732,7 +17790,7 @@
         <v>1603439.260440666</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15798,7 +17856,7 @@
         <v>1603395.536140666</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15831,7 +17889,7 @@
         <v>1603395.536140666</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -21738,7 +23796,7 @@
         <v>1572602.868186252</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21804,7 +23862,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21837,7 +23895,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21870,7 +23928,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21903,7 +23961,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21936,7 +23994,7 @@
         <v>1572604.068186252</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21969,7 +24027,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22002,7 +24060,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22035,7 +24093,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22068,7 +24126,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22101,7 +24159,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22134,7 +24192,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22167,7 +24225,7 @@
         <v>1573538.420086252</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22200,7 +24258,7 @@
         <v>1574708.046186252</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22233,7 +24291,7 @@
         <v>1576545.032086252</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22266,7 +24324,7 @@
         <v>1578062.584586252</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22299,7 +24357,7 @@
         <v>1578936.145686252</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22332,7 +24390,7 @@
         <v>1578827.205186252</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22365,7 +24423,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22398,7 +24456,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22431,7 +24489,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22464,7 +24522,7 @@
         <v>1578737.972423603</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22497,7 +24555,7 @@
         <v>1576978.281842246</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22530,7 +24588,7 @@
         <v>1579898.146512032</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22563,7 +24621,7 @@
         <v>1579898.146512032</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22629,7 +24687,7 @@
         <v>1585386.268654991</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22695,7 +24753,7 @@
         <v>1587021.627954992</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
